--- a/biology/Biologie cellulaire et moléculaire/USP18/USP18.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/USP18/USP18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'USP18 (pour « Ubiquitin specific peptidase 18 »), appelé aussi UBP43, est une peptidase. Son gène, USP18 est situé sur le chromosome 6 humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe à une sous-unité du récepteur aux interférons de type I (IFNAR2), bloquant la fixation du JAK à ce dernier[5] et empêchant l'action de l'interféron de type I. 
-Il a un rôle dans la dégradation de l'ISG15[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe à une sous-unité du récepteur aux interférons de type I (IFNAR2), bloquant la fixation du JAK à ce dernier et empêchant l'action de l'interféron de type I. 
+Il a un rôle dans la dégradation de l'ISG15.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une mutation du gène donne un syndrome comprenant une microcéphalie, une dilatation des ventricules cérébraux et des calcifications cérébrales
-[7]. Le ruxolitinib, un inhibiteur du JAK, donné précocement, peut en améliorer le pronostic[8]. 
+. Le ruxolitinib, un inhibiteur du JAK, donné précocement, peut en améliorer le pronostic. 
 </t>
         </is>
       </c>
